--- a/Prática de Gestão de projetos/P1/Modelo Canvas explicativo 2024.xlsx
+++ b/Prática de Gestão de projetos/P1/Modelo Canvas explicativo 2024.xlsx
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
-    <t>Linha de Tempo                     1 - Data de entrega - 1 fase                        2- Data de entrega  obs-  grupos de entrega</t>
+    <t>GERENTE DO PROJETO:  Maria Fernanda P Caetano</t>
   </si>
   <si>
-    <t>Custos    São valores para desenvolver o projeto</t>
+    <t>EQUIPE: Maria Fernanda P Caetano</t>
   </si>
   <si>
-    <t xml:space="preserve">Restrições                                                                                                                                    Desenvolvedores com experiencia     Maquinas capaz de desenvolver o software  Internet rapida </t>
+    <t>PITCH:  Horta comunitária para pessoas de baixa renda</t>
   </si>
   <si>
     <r>
@@ -60,17 +60,13 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  Alimentação de baixa qualidade e dificuldades econômicas generalizadas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t xml:space="preserve">  Para que esse local se mantenha, eles têm várias necessidades fundamentais:
+Recursos Materiais
+ Ferramentas de Jardinagem, Suprimentos para Plantio e Estruturas de Suporte.
+Recursos Humanos
+ Voluntários e especialistas.
+Apoio Comunitário e Institucional
+ Engajamento da Comunidade</t>
     </r>
   </si>
   <si>
@@ -87,7 +83,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Criar horta comunitária que forneça pelo menos 10 variedades de vegetais frescos.Mobilizando voluntários da comunidade e buscar percerias com algumas organizações e moradores locais para obter recurso.</t>
+      <t>S : Arrecadar fundos para o desenvolvimento e manutenção da horta promovendo a alimentação saudável e o engajamento comunitário do bairro com um jantar beneficente.
+M : Arrecadar R$ 15.000,00 a partir da venda de ingressos, patrocínios e doações durante o evento.
+A : Com o envolvimento de restaurantes locais, voluntários, e a promoção nas redes sociais e na comunidade local.
+R : Relevante para o objetivo maior de fortalecer a horta comunitária "Bons Frutos" como um recurso sustentável para a comunidade, promovendo a alimentação saudável e a inclusão social.
+T : O evento será realizado no Dia dos Namorados, 12 de junho, a organização começara 2 meses antes.</t>
     </r>
   </si>
   <si>
@@ -104,17 +104,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Acesso a alimentos saudáveis, economia domestica e legado para futuras gerações</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
+      <t>Arrecadação de Fundos para a Causa
+Conscientização da Comunidade
+Fortalecimento da Comunidade
+Promoção de Parcerias Locais
+Engajamento e Entretenimento
+Marketing e Visibilidade para Patrocinadores</t>
     </r>
     <r>
       <rPr>
@@ -141,15 +136,6 @@
     </r>
   </si>
   <si>
-    <t>GERENTE DO PROJETO:  Maria Fernanda P Caetano</t>
-  </si>
-  <si>
-    <t>EQUIPE: Maria Fernanda P Caetano</t>
-  </si>
-  <si>
-    <t>PITCH:  Horta comunitária para pessoas de baixa renda</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Produto
 </t>
@@ -163,7 +149,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Horta comunitária</t>
+      <t>Jantar Beneficente no dia dos namorados</t>
     </r>
   </si>
   <si>
@@ -180,10 +166,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Localização e Espaço
- Seleção de terreno
- Avaliação de solo
- Acesso e segurança
+      <t xml:space="preserve">Planejamento e Coordenação
+ Comitê Organizador, Plano do Evento, Licenças e Permissões.
+Local
+ Espaço e Infraestrutura.
+Fornecedores
+ Refeição e decoração
+Divulgação
+ Material Promocional e Engajamento da Comunidade
+Refeição
+ Menu temático
+Decoração
+ Decoração temática
+Arrecadação de Fundos
+ Vendas de Ingressos e Doações e Patrocínios
 Recursos
  Financiamento:  Obter recursos financeiros para cobrir custos iniciais e operacionais, seja através de doações, patrocínios ou fundos comunitários.
  Ferramentas e equipamentos
@@ -194,6 +190,8 @@
  Planejamento do espaço
  Compostagem
  Irrigaçao
+ Compostagem
+ Irrigaçao
 </t>
     </r>
     <r>
@@ -222,8 +220,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Moradores locais,
-Departamentos de Saúde e Assistência Social, Ambiente.</t>
+      <t>Moradores locais
+Departamentos de Saúde e Assistência Social
+Ambiente</t>
     </r>
     <r>
       <rPr>
@@ -261,11 +260,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Coordenadores do Projeto,
-Especialistas em Horticultura e Agricultura,
-Voluntários da Comunidade,
-Profissionais de Construção e Manutenção,
-Parceiros Comunitários e Institucionais</t>
+      <t>Coordenador Geral
+Gerente Financeiro
+Especialista em Captação de Recursos
+Gerente de Logística
+Equipe de marketing
+Fornecedores patrocinadores (Decoração, Alimentos e divulgação)</t>
     </r>
   </si>
   <si>
@@ -289,10 +289,12 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Terreno Apropriado
-Materiais de Plantio
-Acesso a Água
-Participação Ativa da Comunidade</t>
+      <t xml:space="preserve">
+Disponibilidade de Voluntários
+Apoio da Comunidade
+Financiamento e Patrocínio
+Permissões e Licenças
+Logística e Fornecedores</t>
     </r>
     <r>
       <rPr>
@@ -338,11 +340,16 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1-  Compreender as necessidades da comunidade, avaliar a disponibilidade de recursos, e identificar potenciais desafios e oportunidades.
-2- Definir especificações detalhadas do projeto, incluindo design da horta, escolha de culturas, infraestrutura necessária, e requisitos de mão de obra e financeiros.
-3-  Implementar o design e construir a infraestrutura da horta, preparar o solo, plantar as culturas selecionadas e estabelecer procedimentos de manutenção.
-4- Iniciar a operação da horta, monitorar o desenvolvimento das plantas, ajustar procedimentos conforme necessário e preparar para a colheita e distribuição dos produtos.</t>
-    </r>
+      <t>1-  Estudo de Viabilidade e Orçamento, Plano de Projeto Detalhado.
+2- Estratégia de Marketing e Promoção, Lista de Convidados e Gestão de Convites, Acordos com Fornecedores, Recrutamento de Voluntários.
+3-  Decoração e Ambientação do Local, Preparação do Cardápio e Serviço de Alimentação, Gestão do Evento, Registro do Evento.
+4- Avaliação e Feedback, Relatório Financeiro, Agradecimentos e Divulgação dos Resultados, Relatório de Encerramento do Projeto.</t>
+    </r>
+  </si>
+  <si>
+    <t>Restrições                                                                                                                                    Orçamento limitado: R$ 5.000,00
+Capacidade do local: 150 pessoas
+Mínimo de 20 voluntários</t>
   </si>
   <si>
     <r>
@@ -365,10 +372,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Condições Climáticas Adversas
-Pragas e Doenças
-Variações no Preço de Insumos
-Disponibilidade de Voluntários</t>
+      <t>Baixa venda de ingressos
+Poucos voluntarios</t>
     </r>
     <r>
       <rPr>
@@ -382,12 +387,35 @@
 </t>
     </r>
   </si>
+  <si>
+    <t>Linha de Tempo                     Fase 1: Planejamento
+    Data de Início: 01 de Março
+    Data de Entrega: 15 de Março
+        Entregáveis: Conceito do evento definido, estudo de viabilidade completado, plano de projeto detalhado criado.
+Fase 2: Organização
+    Data de Início: 16 de Março
+    Data de Entrega: 30 de Abril
+        Entregáveis: Estratégia de marketing implementada, lista de convidados finalizada, acordos com fornecedores firmados, equipe de voluntários recrutada.
+Fase 3: Execução
+    Data de Início: 01 de Maio
+    Data de Entrega (Evento): 12 de Junho
+        Entregáveis: Decoração e preparação do local no dia anterior ou dia do evento, coordenação do serviço de alimentação, gestão de atividades durante o evento.
+Fase 4: Pós-Evento
+    Data de Início: 13 de Junho
+    Data de Entrega: 27 de Junho
+        Entregáveis: Coleta de feedback, preparação e envio de agradecimentos, compilação do relatório financeiro, relatório de encerramento do projeto.</t>
+  </si>
+  <si>
+    <t>Custos                                        Menu (Refeição): R$ 2.300,00
+Marketing: R$ 800,00
+Decoração: R$ 1.200,00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,13 +455,6 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -726,6 +747,159 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -759,164 +933,11 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1208,907 +1229,909 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:X38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16:W28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="8" width="8.7109375" style="1"/>
+    <col min="1" max="4" width="8.7109375" style="1"/>
+    <col min="5" max="5" width="23.85546875" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.7109375" style="1"/>
     <col min="9" max="9" width="14.42578125" style="1" customWidth="1"/>
     <col min="10" max="16" width="8.7109375" style="1"/>
-    <col min="17" max="17" width="44.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="33.28515625" style="1" customWidth="1"/>
     <col min="18" max="20" width="8.7109375" style="1"/>
     <col min="21" max="21" width="8.7109375" style="1" customWidth="1"/>
     <col min="22" max="22" width="8.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="0.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" style="1" customWidth="1"/>
     <col min="24" max="24" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:24" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
-        <v>6</v>
+      <c r="B2" s="61" t="s">
+        <v>0</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="12"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="62"/>
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="63"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>7</v>
+      <c r="B3" s="64" t="s">
+        <v>1</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="66"/>
     </row>
     <row r="4" spans="2:24" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="16" t="s">
-        <v>8</v>
+      <c r="B4" s="67" t="s">
+        <v>2</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="18"/>
-      <c r="W4" s="19"/>
-      <c r="X4" s="19"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="69"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
     </row>
     <row r="5" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="2:24" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="45" t="s">
-        <v>9</v>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="32" t="s">
+        <v>6</v>
       </c>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="54" t="s">
-        <v>11</v>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="41" t="s">
+        <v>8</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="20" t="s">
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="19"/>
-      <c r="X6" s="19"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
     </row>
     <row r="7" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="32"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="59"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="24"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="43"/>
-      <c r="S7" s="44"/>
-      <c r="T7" s="44"/>
-      <c r="U7" s="44"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
+      <c r="L7" s="45"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="15"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
       <c r="V7" s="4"/>
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
     </row>
     <row r="8" spans="2:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="59"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="44"/>
-      <c r="T8" s="44"/>
-      <c r="U8" s="44"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="15"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
       <c r="V8" s="4"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
+      <c r="W8" s="70"/>
+      <c r="X8" s="70"/>
     </row>
     <row r="9" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="59"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="25"/>
-      <c r="R9" s="43"/>
-      <c r="S9" s="44"/>
-      <c r="T9" s="44"/>
-      <c r="U9" s="44"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="44"/>
+      <c r="K9" s="45"/>
+      <c r="L9" s="45"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="15"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
       <c r="V9" s="4"/>
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
     </row>
     <row r="10" spans="2:24" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="25"/>
-      <c r="R10" s="43"/>
-      <c r="S10" s="44"/>
-      <c r="T10" s="44"/>
-      <c r="U10" s="44"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="45"/>
+      <c r="L10" s="45"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
       <c r="V10" s="4"/>
-      <c r="W10" s="39"/>
-      <c r="X10" s="39"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
     </row>
     <row r="11" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="44"/>
-      <c r="T11" s="44"/>
-      <c r="U11" s="44"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="45"/>
+      <c r="L11" s="45"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
       <c r="V11" s="4"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="2:24" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="35"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="R12" s="43"/>
-      <c r="S12" s="44"/>
-      <c r="T12" s="44"/>
-      <c r="U12" s="44"/>
+    <row r="12" spans="2:24" ht="180.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="46"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
       <c r="V12" s="4"/>
-      <c r="W12" s="39"/>
-      <c r="X12" s="39"/>
+      <c r="W12" s="73"/>
+      <c r="X12" s="73"/>
     </row>
     <row r="13" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="45" t="s">
-        <v>10</v>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="32" t="s">
+        <v>7</v>
       </c>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="58"/>
-      <c r="L13" s="58"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="25"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="45"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="15"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
       <c r="V13" s="4"/>
     </row>
     <row r="14" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="59"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="44"/>
-      <c r="T14" s="44"/>
-      <c r="U14" s="44"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="45"/>
+      <c r="M14" s="46"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
       <c r="V14" s="4"/>
     </row>
     <row r="15" spans="2:24" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="43"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="47"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="48"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="2:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="54" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="72" t="s">
+        <v>11</v>
+      </c>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="51"/>
+    </row>
+    <row r="17" spans="2:24" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="45"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
+      <c r="W17" s="52"/>
+    </row>
+    <row r="18" spans="2:24" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="45"/>
+      <c r="L18" s="45"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
+      <c r="W18" s="52"/>
+    </row>
+    <row r="19" spans="2:24" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="45"/>
+      <c r="L19" s="45"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="15"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="52"/>
+    </row>
+    <row r="20" spans="2:24" ht="248.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
+      <c r="W20" s="52"/>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B21" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="46"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
+      <c r="W21" s="52"/>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="52"/>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B23" s="26"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="45"/>
+      <c r="L23" s="45"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="52"/>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B24" s="26"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="45"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="13"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="52"/>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B25" s="26"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="45"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
+      <c r="W25" s="52"/>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B26" s="26"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="45"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
+      <c r="W26" s="52"/>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
+      <c r="L27" s="45"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
+      <c r="W27" s="52"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="45"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="53"/>
+      <c r="S28" s="54"/>
+      <c r="T28" s="54"/>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
+      <c r="W28" s="55"/>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B29" s="26"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
+      <c r="L29" s="45"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="S29" s="56"/>
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="5"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B30" s="26"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="46"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="6"/>
+    </row>
+    <row r="31" spans="2:24" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="26"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="48"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="49"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="18"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="58"/>
+      <c r="T31" s="58"/>
+      <c r="U31" s="58"/>
+      <c r="V31" s="58"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="6"/>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+      <c r="B32" s="26"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="S16" s="42"/>
-      <c r="T16" s="42"/>
-      <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
-      <c r="W16" s="64"/>
-    </row>
-    <row r="17" spans="2:24" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="32"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="25"/>
-      <c r="R17" s="43"/>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
-      <c r="U17" s="44"/>
-      <c r="V17" s="44"/>
-      <c r="W17" s="65"/>
-    </row>
-    <row r="18" spans="2:24" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="32"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="48"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="58"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="25"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="65"/>
-    </row>
-    <row r="19" spans="2:24" ht="15.75" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="48"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="24"/>
-      <c r="P19" s="24"/>
-      <c r="Q19" s="25"/>
-      <c r="R19" s="43"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="65"/>
-    </row>
-    <row r="20" spans="2:24" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="35"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="37"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="58"/>
-      <c r="L20" s="58"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="25"/>
-      <c r="R20" s="43"/>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
-      <c r="U20" s="44"/>
-      <c r="V20" s="44"/>
-      <c r="W20" s="65"/>
-    </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B21" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="58"/>
-      <c r="L21" s="58"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="43"/>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
-      <c r="U21" s="44"/>
-      <c r="V21" s="44"/>
-      <c r="W21" s="65"/>
-    </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B22" s="32"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="25"/>
-      <c r="R22" s="43"/>
-      <c r="S22" s="44"/>
-      <c r="T22" s="44"/>
-      <c r="U22" s="44"/>
-      <c r="V22" s="44"/>
-      <c r="W22" s="65"/>
-    </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B23" s="32"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="58"/>
-      <c r="L23" s="58"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="24"/>
-      <c r="P23" s="24"/>
-      <c r="Q23" s="25"/>
-      <c r="R23" s="43"/>
-      <c r="S23" s="44"/>
-      <c r="T23" s="44"/>
-      <c r="U23" s="44"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="65"/>
-    </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B24" s="32"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="58"/>
-      <c r="L24" s="58"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="24"/>
-      <c r="Q24" s="25"/>
-      <c r="R24" s="43"/>
-      <c r="S24" s="44"/>
-      <c r="T24" s="44"/>
-      <c r="U24" s="44"/>
-      <c r="V24" s="44"/>
-      <c r="W24" s="65"/>
-    </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B25" s="32"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="58"/>
-      <c r="L25" s="58"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="43"/>
-      <c r="S25" s="44"/>
-      <c r="T25" s="44"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="65"/>
-    </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B26" s="32"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="57"/>
-      <c r="K26" s="58"/>
-      <c r="L26" s="58"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="43"/>
-      <c r="S26" s="44"/>
-      <c r="T26" s="44"/>
-      <c r="U26" s="44"/>
-      <c r="V26" s="44"/>
-      <c r="W26" s="65"/>
-    </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B27" s="32"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="57"/>
-      <c r="K27" s="58"/>
-      <c r="L27" s="58"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="43"/>
-      <c r="S27" s="44"/>
-      <c r="T27" s="44"/>
-      <c r="U27" s="44"/>
-      <c r="V27" s="44"/>
-      <c r="W27" s="65"/>
-    </row>
-    <row r="28" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="32"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="48"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="58"/>
-      <c r="L28" s="58"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="24"/>
-      <c r="P28" s="24"/>
-      <c r="Q28" s="25"/>
-      <c r="R28" s="66"/>
-      <c r="S28" s="67"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="67"/>
-      <c r="V28" s="67"/>
-      <c r="W28" s="68"/>
-    </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B29" s="32"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="57"/>
-      <c r="K29" s="58"/>
-      <c r="L29" s="58"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
-      <c r="U29" s="69"/>
-      <c r="V29" s="69"/>
-      <c r="W29" s="8"/>
-      <c r="X29" s="5"/>
-    </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="48"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="57"/>
-      <c r="K30" s="58"/>
-      <c r="L30" s="58"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="70"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="6"/>
-    </row>
-    <row r="31" spans="2:24" ht="176.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="60"/>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="28"/>
-      <c r="R31" s="70"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="6"/>
-    </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B32" s="32"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="70"/>
-      <c r="S32" s="71"/>
-      <c r="T32" s="71"/>
-      <c r="U32" s="71"/>
-      <c r="V32" s="71"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="12"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="58"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="58"/>
+      <c r="V32" s="58"/>
       <c r="W32" s="9"/>
       <c r="X32" s="6"/>
     </row>
     <row r="33" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B33" s="32"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="48"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="70"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="15"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="58"/>
+      <c r="T33" s="58"/>
+      <c r="U33" s="58"/>
+      <c r="V33" s="58"/>
       <c r="W33" s="9"/>
       <c r="X33" s="6"/>
     </row>
     <row r="34" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B34" s="32"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="70"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="58"/>
+      <c r="U34" s="58"/>
+      <c r="V34" s="58"/>
       <c r="W34" s="9"/>
       <c r="X34" s="6"/>
     </row>
     <row r="35" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="B35" s="32"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="48"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="49"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="70"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="15"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="58"/>
+      <c r="T35" s="58"/>
+      <c r="U35" s="58"/>
+      <c r="V35" s="58"/>
       <c r="W35" s="9"/>
       <c r="X35" s="6"/>
     </row>
     <row r="36" spans="2:24" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="48"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-      <c r="N36" s="24"/>
-      <c r="O36" s="24"/>
-      <c r="P36" s="24"/>
-      <c r="Q36" s="25"/>
-      <c r="R36" s="70"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="13"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="58"/>
+      <c r="T36" s="58"/>
+      <c r="U36" s="58"/>
+      <c r="V36" s="58"/>
       <c r="W36" s="7"/>
       <c r="X36" s="6"/>
     </row>
     <row r="37" spans="2:24" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="35"/>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="27"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="27"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="28"/>
-      <c r="R37" s="72"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="73"/>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="40"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="18"/>
+      <c r="R37" s="59"/>
+      <c r="S37" s="60"/>
+      <c r="T37" s="60"/>
+      <c r="U37" s="60"/>
+      <c r="V37" s="60"/>
       <c r="W37" s="7"/>
       <c r="X37" s="6"/>
     </row>
@@ -2118,15 +2141,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="J32:Q37"/>
-    <mergeCell ref="R6:U15"/>
-    <mergeCell ref="B21:E37"/>
-    <mergeCell ref="F6:I12"/>
-    <mergeCell ref="F13:I37"/>
-    <mergeCell ref="J6:M15"/>
-    <mergeCell ref="J16:M31"/>
-    <mergeCell ref="R16:W28"/>
-    <mergeCell ref="R29:V37"/>
     <mergeCell ref="B2:U2"/>
     <mergeCell ref="B3:U3"/>
     <mergeCell ref="B4:U4"/>
@@ -2139,6 +2153,15 @@
     <mergeCell ref="W10:X10"/>
     <mergeCell ref="W12:X12"/>
     <mergeCell ref="W8:X8"/>
+    <mergeCell ref="J32:Q37"/>
+    <mergeCell ref="R6:U15"/>
+    <mergeCell ref="B21:E37"/>
+    <mergeCell ref="F6:I12"/>
+    <mergeCell ref="F13:I37"/>
+    <mergeCell ref="J6:M15"/>
+    <mergeCell ref="J16:M31"/>
+    <mergeCell ref="R16:W28"/>
+    <mergeCell ref="R29:V37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2159,14 +2182,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c1ca515-224c-4985-9692-103163aa8265">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="dfdf0eb2-a6ac-4f22-a8b7-230089c9822d" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2365,21 +2386,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="9c1ca515-224c-4985-9692-103163aa8265">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="dfdf0eb2-a6ac-4f22-a8b7-230089c9822d" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F3041-1E2E-49D5-BF12-0EFFB2660180}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D0772-E19D-4062-9A55-51329E75C99A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c1ca515-224c-4985-9692-103163aa8265"/>
-    <ds:schemaRef ds:uri="dfdf0eb2-a6ac-4f22-a8b7-230089c9822d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2404,9 +2424,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{141D0772-E19D-4062-9A55-51329E75C99A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18F3041-1E2E-49D5-BF12-0EFFB2660180}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c1ca515-224c-4985-9692-103163aa8265"/>
+    <ds:schemaRef ds:uri="dfdf0eb2-a6ac-4f22-a8b7-230089c9822d"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>